--- a/data/trans_camb/P16B07-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B07-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P16B07-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B07-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -611,22 +611,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,64</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,64</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,42</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,42</t>
         </is>
       </c>
     </row>
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 59,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 68,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 53,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 54,2</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,51%</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 149,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 224,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 113,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 118,31</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,41</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,92</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,92</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 23,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 25,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,87; 25,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,86; 22,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,0; 17,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,22; 18,59</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,38%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,6%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 30,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 34,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,95; 33,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,94; 29,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,04; 21,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,27; 22,83</t>
         </is>
       </c>
     </row>
@@ -923,22 +923,22 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,55</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,61; 7,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,83; 6,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,43</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,57%</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,61; 7,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,83; 6,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,67</t>
         </is>
       </c>
     </row>
@@ -1079,22 +1079,22 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,61</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,35</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,54; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,49; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,18; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,92; 0,0</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,11%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,61%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,64%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,35%</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,54; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,49; 0,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,18; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,92; 0,0</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>5,02</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5,02</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,95</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>0,0; 26,68</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 27,27</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,8</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,86</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,96%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>0,0; 36,38</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 37,5</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,04</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,11</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,03</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,31</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,89</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 5,1</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 5,19</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,28; 4,54</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,39; 5,0</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,08%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,5</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,98</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 5,42</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 5,53</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,28; 4,79</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,41; 5,31</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B07-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B07-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,64</t>
+          <t>10,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,64</t>
+          <t>10,38</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,42</t>
+          <t>8,59</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,42</t>
+          <t>8,59</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 26,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 26,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 59,88</t>
+          <t>2,63; 22,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 68,35</t>
+          <t>2,48; 22,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,22</t>
+          <t>3,4; 18,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,2</t>
+          <t>3,41; 17,95</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>9,4%</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 35,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 36,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 149,23</t>
+          <t>2,7; 29,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 224,72</t>
+          <t>2,54; 29,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 113,75</t>
+          <t>3,52; 22,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 118,31</t>
+          <t>3,53; 21,87</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,41</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,41</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,92</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,92</t>
+          <t>1,55</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,87; 25,19</t>
+          <t>-2,61; 7,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 22,56</t>
+          <t>0,0; 10,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 17,42</t>
+          <t>-1,83; 6,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,22; 18,59</t>
+          <t>0,0; 10,43</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>1,57%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 33,66</t>
+          <t>-2,61; 7,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,94; 29,12</t>
+          <t>0,0; 11,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 21,09</t>
+          <t>-1,83; 6,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,27; 22,83</t>
+          <t>0,0; 11,67</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -923,22 +923,22 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>-4,61</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>-3,35</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 7,04</t>
+          <t>-8,54; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,5</t>
+          <t>-14,49; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 6,09</t>
+          <t>-8,18; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,43</t>
+          <t>-10,92; 0,0</t>
         </is>
       </c>
     </row>
@@ -999,22 +999,22 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>-2,11%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>-4,61%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>-1,64%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>-3,35%</t>
         </is>
       </c>
     </row>
@@ -1037,29 +1037,29 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 7,64</t>
+          <t>-8,54; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,73</t>
+          <t>-14,49; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 6,49</t>
+          <t>-8,18; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,67</t>
+          <t>-10,92; 0,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>5,02</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5,02</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-2,11</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-4,61</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
+          <t>0,95</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,0; 26,68</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 27,27</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-8,54; 0,0</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-14,49; 0,0</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 0,0</t>
+          <t>0,0; 4,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 0,0</t>
+          <t>0,0; 4,86</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>5,28%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5,28%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-2,11%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-4,61%</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,64%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-3,35%</t>
+          <t>0,96%</t>
         </is>
       </c>
     </row>
@@ -1183,39 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>0,0; 36,38</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 37,5</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-8,54; 0,0</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>-14,49; 0,0</t>
-        </is>
-      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 0,0</t>
+          <t>0,0; 5,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 0,0</t>
+          <t>0,0; 5,11</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>5,02</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5,02</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>2,03</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,68</t>
+          <t>0,0; 10,31</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,27</t>
+          <t>0,0; 9,89</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 5,1</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 5,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,8</t>
+          <t>0,28; 4,54</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,86</t>
+          <t>0,39; 5,0</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>2,08%</t>
         </is>
       </c>
     </row>
@@ -1339,200 +1339,44 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,38</t>
+          <t>0,0; 11,5</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,5</t>
+          <t>0,0; 10,98</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 5,42</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 5,53</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,04</t>
+          <t>0,28; 4,79</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,11</t>
+          <t>0,41; 5,31</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>1,83</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>1,82</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>2,06</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>2,03</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,31</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 9,89</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,12; 5,1</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,27; 5,19</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>0,28; 4,54</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>0,39; 5,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>2,8%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>2,8%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>1,88%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>1,87%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>2,11%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>2,08%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 11,5</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,98</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-0,12; 5,42</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-0,27; 5,53</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>0,28; 4,79</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>0,41; 5,31</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P16B07-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B07-Habitat-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,04</t>
+          <t>0,0; 20,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,51</t>
+          <t>0,0; 24,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,63; 22,97</t>
+          <t>2,46; 22,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,48; 22,67</t>
+          <t>2,59; 24,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,4; 18,42</t>
+          <t>3,32; 19,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,41; 17,95</t>
+          <t>3,27; 17,52</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,31</t>
+          <t>0,0; 26,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,22</t>
+          <t>0,0; 32,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,7; 29,82</t>
+          <t>2,52; 29,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,54; 29,31</t>
+          <t>2,65; 32,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,52; 22,58</t>
+          <t>3,43; 24,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,53; 21,87</t>
+          <t>3,38; 21,24</t>
         </is>
       </c>
     </row>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 7,04</t>
+          <t>-2,62; 8,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,5</t>
+          <t>0,0; 10,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 6,09</t>
+          <t>-1,83; 6,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,43</t>
+          <t>0,0; 8,74</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 7,64</t>
+          <t>-2,62; 9,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,73</t>
+          <t>0,0; 11,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 6,49</t>
+          <t>-1,83; 6,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,67</t>
+          <t>0,0; 9,58</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 0,0</t>
+          <t>-10,53; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 0,0</t>
+          <t>-14,45; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 0,0</t>
+          <t>-8,65; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 0,0</t>
+          <t>-11,31; 0,0</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 0,0</t>
+          <t>-10,53; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 0,0</t>
+          <t>-14,45; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 0,0</t>
+          <t>-8,65; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 0,0</t>
+          <t>-11,31; 0,0</t>
         </is>
       </c>
     </row>
@@ -1107,12 +1107,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,68</t>
+          <t>0,0; 25,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,27</t>
+          <t>0,0; 25,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,8</t>
+          <t>0,0; 4,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,86</t>
+          <t>0,0; 4,88</t>
         </is>
       </c>
     </row>
@@ -1183,12 +1183,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,38</t>
+          <t>0,0; 33,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,5</t>
+          <t>0,0; 33,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,04</t>
+          <t>0,0; 5,11</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,11</t>
+          <t>0,0; 5,13</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,31</t>
+          <t>0,0; 9,47</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,89</t>
+          <t>0,0; 8,59</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 5,1</t>
+          <t>-0,3; 4,74</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 5,19</t>
+          <t>-0,14; 4,77</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,28; 4,54</t>
+          <t>0,19; 4,55</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,39; 5,0</t>
+          <t>0,42; 4,65</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,5</t>
+          <t>0,0; 10,46</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,98</t>
+          <t>0,0; 9,39</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 5,42</t>
+          <t>-0,3; 5,02</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 5,53</t>
+          <t>-0,14; 5,01</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,28; 4,79</t>
+          <t>0,21; 4,8</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,41; 5,31</t>
+          <t>0,44; 4,92</t>
         </is>
       </c>
     </row>
